--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -145,10 +145,6 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>.text</t>
@@ -1884,10 +1884,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1909,25 +1909,25 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1978,22 +1978,22 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>38</v>
@@ -2001,14 +2001,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -2027,16 +2027,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2074,19 +2074,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -2098,10 +2098,10 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>38</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>38</v>
@@ -2137,13 +2137,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2194,7 +2194,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -2206,7 +2206,7 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>38</v>
@@ -2245,13 +2245,13 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2302,7 +2302,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
@@ -2314,7 +2314,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2325,13 +2325,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>38</v>
@@ -2353,13 +2353,13 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2410,7 +2410,7 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
@@ -2422,7 +2422,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>38</v>
@@ -2461,13 +2461,13 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2518,7 +2518,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2530,7 +2530,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -2541,14 +2541,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2561,25 +2561,25 @@
         <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>38</v>
@@ -2628,7 +2628,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2640,10 +2640,10 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>38</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2665,7 +2665,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2674,22 +2674,22 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2738,19 +2738,19 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>97</v>
@@ -2775,19 +2775,19 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>100</v>
@@ -2854,13 +2854,13 @@
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>97</v>
@@ -2894,7 +2894,7 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
@@ -2968,7 +2968,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>97</v>
@@ -2993,19 +2993,19 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>115</v>
@@ -3070,13 +3070,13 @@
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>97</v>
@@ -3101,7 +3101,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3180,19 +3180,19 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -3211,25 +3211,25 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3280,22 +3280,22 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3329,16 +3329,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3376,19 +3376,19 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3400,10 +3400,10 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3431,25 +3431,25 @@
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3498,7 +3498,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3510,10 +3510,10 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
@@ -3544,7 +3544,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>129</v>
@@ -3618,7 +3618,7 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>134</v>
@@ -3643,7 +3643,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3652,7 +3652,7 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>136</v>
@@ -3720,7 +3720,7 @@
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
@@ -3751,25 +3751,25 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3820,22 +3820,22 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3869,16 +3869,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3916,19 +3916,19 @@
         <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3940,10 +3940,10 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
@@ -3965,7 +3965,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3974,7 +3974,7 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>146</v>
@@ -4040,13 +4040,13 @@
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>150</v>
@@ -4071,7 +4071,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4080,7 +4080,7 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>152</v>
@@ -4150,13 +4150,13 @@
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>158</v>
@@ -4181,7 +4181,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4190,7 +4190,7 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>152</v>
@@ -4258,13 +4258,13 @@
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>158</v>
@@ -4289,7 +4289,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4298,7 +4298,7 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>165</v>
@@ -4368,13 +4368,13 @@
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>171</v>
@@ -4399,7 +4399,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4408,7 +4408,7 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>165</v>
@@ -4478,13 +4478,13 @@
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>171</v>
@@ -4509,7 +4509,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4518,7 +4518,7 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>177</v>
@@ -4586,13 +4586,13 @@
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>184</v>
@@ -4617,7 +4617,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4626,7 +4626,7 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>152</v>
@@ -4696,13 +4696,13 @@
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>171</v>
@@ -4727,7 +4727,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4736,7 +4736,7 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>152</v>
@@ -4804,13 +4804,13 @@
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>171</v>
@@ -4835,7 +4835,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4844,7 +4844,7 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -4912,13 +4912,13 @@
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>171</v>
@@ -4943,7 +4943,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4952,7 +4952,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>165</v>
@@ -5020,13 +5020,13 @@
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>171</v>
@@ -5051,7 +5051,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5060,7 +5060,7 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>177</v>
@@ -5128,13 +5128,13 @@
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>184</v>
@@ -5168,7 +5168,7 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>177</v>
@@ -5240,10 +5240,10 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -5274,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>215</v>
@@ -5348,10 +5348,10 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -5382,7 +5382,7 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>177</v>
@@ -5458,7 +5458,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>228</v>
@@ -5483,7 +5483,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5492,7 +5492,7 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>230</v>
@@ -5560,13 +5560,13 @@
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>234</v>
@@ -5591,7 +5591,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5600,7 +5600,7 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>106</v>
@@ -5666,13 +5666,13 @@
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>241</v>
@@ -5697,7 +5697,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5706,7 +5706,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>243</v>
@@ -5774,13 +5774,13 @@
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>247</v>
@@ -5805,7 +5805,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5814,7 +5814,7 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>106</v>
@@ -5882,13 +5882,13 @@
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>255</v>
@@ -5913,25 +5913,25 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5982,22 +5982,22 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6031,16 +6031,16 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6078,19 +6078,19 @@
         <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC40" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC40" t="s" s="2">
+      <c r="AD40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE40" t="s" s="2">
+      <c r="AF40" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6102,10 +6102,10 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>38</v>
@@ -6198,7 +6198,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6210,7 +6210,7 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6306,7 +6306,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6318,7 +6318,7 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -6352,7 +6352,7 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>270</v>
@@ -6428,7 +6428,7 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>276</v>
@@ -6453,19 +6453,19 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>279</v>
@@ -6532,13 +6532,13 @@
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>284</v>
@@ -6563,7 +6563,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6572,7 +6572,7 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>106</v>
@@ -6640,13 +6640,13 @@
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>291</v>
@@ -6671,25 +6671,25 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6740,22 +6740,22 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>38</v>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6789,16 +6789,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6836,19 +6836,19 @@
         <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC47" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC47" t="s" s="2">
+      <c r="AD47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6860,10 +6860,10 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>38</v>
@@ -6956,7 +6956,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -6968,7 +6968,7 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -7002,7 +7002,7 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>270</v>
@@ -7078,7 +7078,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>276</v>
@@ -7103,19 +7103,19 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>279</v>
@@ -7182,13 +7182,13 @@
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>284</v>
@@ -7213,7 +7213,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7222,7 +7222,7 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>106</v>
@@ -7292,13 +7292,13 @@
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>309</v>
@@ -7323,25 +7323,25 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7392,22 +7392,22 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7441,16 +7441,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7488,19 +7488,19 @@
         <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC53" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC53" t="s" s="2">
+      <c r="AD53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7512,10 +7512,10 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>38</v>
@@ -7608,7 +7608,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7620,7 +7620,7 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -7654,7 +7654,7 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>270</v>
@@ -7713,7 +7713,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>275</v>
@@ -7728,7 +7728,7 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>276</v>
@@ -7755,7 +7755,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -7764,7 +7764,7 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>270</v>
@@ -7838,7 +7838,7 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>276</v>
@@ -7863,25 +7863,25 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7932,22 +7932,22 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>38</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7981,16 +7981,16 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8028,19 +8028,19 @@
         <v>38</v>
       </c>
       <c r="AB58" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC58" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC58" t="s" s="2">
+      <c r="AD58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE58" t="s" s="2">
+      <c r="AF58" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8052,10 +8052,10 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>38</v>
@@ -8074,10 +8074,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8086,7 +8086,7 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>333</v>
@@ -8156,13 +8156,13 @@
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>340</v>
@@ -8187,19 +8187,19 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>344</v>
@@ -8264,13 +8264,13 @@
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>348</v>
@@ -8295,7 +8295,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8304,7 +8304,7 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>177</v>
@@ -8372,13 +8372,13 @@
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>356</v>
@@ -8403,19 +8403,19 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>360</v>
@@ -8480,13 +8480,13 @@
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>364</v>
@@ -8511,7 +8511,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8520,7 +8520,7 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>243</v>
@@ -8590,13 +8590,13 @@
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>373</v>
@@ -8623,7 +8623,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -8632,7 +8632,7 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>270</v>
@@ -8706,7 +8706,7 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>276</v>
@@ -8731,25 +8731,25 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8800,22 +8800,22 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>38</v>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8849,16 +8849,16 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8896,19 +8896,19 @@
         <v>38</v>
       </c>
       <c r="AB66" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC66" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC66" t="s" s="2">
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE66" t="s" s="2">
+      <c r="AF66" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -8920,10 +8920,10 @@
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>38</v>
@@ -8942,10 +8942,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -8954,7 +8954,7 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>333</v>
@@ -9024,13 +9024,13 @@
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>340</v>
@@ -9055,19 +9055,19 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>344</v>
@@ -9132,13 +9132,13 @@
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>348</v>
@@ -9163,7 +9163,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -9172,7 +9172,7 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>177</v>
@@ -9240,13 +9240,13 @@
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>356</v>
@@ -9271,19 +9271,19 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>360</v>
@@ -9348,13 +9348,13 @@
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>364</v>
@@ -9379,7 +9379,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9388,7 +9388,7 @@
         <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>243</v>
@@ -9458,13 +9458,13 @@
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>373</v>
@@ -9489,19 +9489,19 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>100</v>
@@ -9568,13 +9568,13 @@
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>284</v>
@@ -9608,7 +9608,7 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>136</v>
@@ -9680,7 +9680,7 @@
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
@@ -9705,25 +9705,25 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9774,22 +9774,22 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>38</v>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9823,16 +9823,16 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9870,19 +9870,19 @@
         <v>38</v>
       </c>
       <c r="AB75" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC75" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC75" t="s" s="2">
+      <c r="AD75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE75" t="s" s="2">
+      <c r="AF75" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -9894,10 +9894,10 @@
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>38</v>
@@ -9990,7 +9990,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10002,7 +10002,7 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
@@ -10027,7 +10027,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -10036,7 +10036,7 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>106</v>
@@ -10104,13 +10104,13 @@
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
@@ -10135,7 +10135,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -10214,7 +10214,7 @@
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>411</v>
@@ -10245,7 +10245,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -10254,7 +10254,7 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>416</v>
@@ -10322,13 +10322,13 @@
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>423</v>
@@ -10355,7 +10355,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>38</v>
@@ -10434,7 +10434,7 @@
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>411</v>
@@ -10446,7 +10446,7 @@
         <v>431</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
@@ -10467,7 +10467,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>38</v>
@@ -10546,7 +10546,7 @@
         <v>39</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>411</v>
@@ -10579,7 +10579,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>38</v>
@@ -10658,7 +10658,7 @@
         <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>411</v>
@@ -10689,7 +10689,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>38</v>
@@ -10768,7 +10768,7 @@
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>411</v>
@@ -10780,7 +10780,7 @@
         <v>431</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
@@ -10799,7 +10799,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>38</v>
@@ -10878,7 +10878,7 @@
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>411</v>
@@ -10909,7 +10909,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>38</v>
@@ -10988,7 +10988,7 @@
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>411</v>
